--- a/CNY.xlsx
+++ b/CNY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,27 +1207,60 @@
           <t>R01375</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>156</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>91,0864</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>15.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Китайских юаней</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>91,0864</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>15.12.2022</t>
         </is>

--- a/CNY.xlsx
+++ b/CNY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,12 +494,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>85,4248</t>
+          <t>85,7233</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15.11.2022</t>
+          <t>16.07.2022</t>
         </is>
       </c>
     </row>
@@ -527,12 +527,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>85,3691</t>
+          <t>84,2641</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16.11.2022</t>
+          <t>19.07.2022</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>85,0026</t>
+          <t>82,5787</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17.11.2022</t>
+          <t>20.07.2022</t>
         </is>
       </c>
     </row>
@@ -593,12 +593,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>84,4679</t>
+          <t>81,6011</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18.11.2022</t>
+          <t>21.07.2022</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>84,7201</t>
+          <t>83,9854</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19.11.2022</t>
+          <t>22.07.2022</t>
         </is>
       </c>
     </row>
@@ -659,12 +659,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>84,7557</t>
+          <t>85,8282</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22.11.2022</t>
+          <t>23.07.2022</t>
         </is>
       </c>
     </row>
@@ -692,12 +692,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>84,7222</t>
+          <t>86,3099</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23.11.2022</t>
+          <t>26.07.2022</t>
         </is>
       </c>
     </row>
@@ -725,12 +725,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>84,3616</t>
+          <t>87,8717</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24.11.2022</t>
+          <t>27.07.2022</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>84,3800</t>
+          <t>90,4128</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>25.11.2022</t>
+          <t>28.07.2022</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>84,2448</t>
+          <t>90,4549</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>26.11.2022</t>
+          <t>29.07.2022</t>
         </is>
       </c>
     </row>
@@ -824,12 +824,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>84,1256</t>
+          <t>92,1636</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>29.11.2022</t>
+          <t>30.07.2022</t>
         </is>
       </c>
     </row>
@@ -857,12 +857,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>84,8798</t>
+          <t>92,8229</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30.11.2022</t>
+          <t>02.08.2022</t>
         </is>
       </c>
     </row>
@@ -890,12 +890,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>85,3746</t>
+          <t>89,5175</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>01.12.2022</t>
+          <t>03.08.2022</t>
         </is>
       </c>
     </row>
@@ -923,12 +923,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>86,3709</t>
+          <t>89,4465</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>02.12.2022</t>
+          <t>04.08.2022</t>
         </is>
       </c>
     </row>
@@ -956,12 +956,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>87,8395</t>
+          <t>89,3362</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>03.12.2022</t>
+          <t>05.08.2022</t>
         </is>
       </c>
     </row>
@@ -989,12 +989,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>89,3117</t>
+          <t>89,6876</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>06.12.2022</t>
+          <t>06.08.2022</t>
         </is>
       </c>
     </row>
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>89,6835</t>
+          <t>89,6130</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>07.12.2022</t>
+          <t>09.08.2022</t>
         </is>
       </c>
     </row>
@@ -1055,12 +1055,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>89,9043</t>
+          <t>89,5342</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08.12.2022</t>
+          <t>10.08.2022</t>
         </is>
       </c>
     </row>
@@ -1088,12 +1088,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>89,7431</t>
+          <t>89,5251</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09.12.2022</t>
+          <t>11.08.2022</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>89,6236</t>
+          <t>90,0583</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10.12.2022</t>
+          <t>12.08.2022</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1154,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>89,8436</t>
+          <t>90,3978</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13.12.2022</t>
+          <t>13.08.2022</t>
         </is>
       </c>
     </row>
@@ -1187,12 +1187,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>90,3731</t>
+          <t>90,4515</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>14.12.2022</t>
+          <t>16.08.2022</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>91,0864</t>
+          <t>90,1556</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15.12.2022</t>
+          <t>17.08.2022</t>
         </is>
       </c>
     </row>
@@ -1240,27 +1240,2832 @@
           <t>R01375</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>156</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>89,5099</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>18.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>156</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>88,2740</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>19.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>156</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>86,5830</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>20.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>156</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>87,1277</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>23.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>156</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>87,1738</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>24.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>156</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>87,3526</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>25.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>156</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>87,1936</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>26.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>156</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>87,4478</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>27.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>156</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>87,2167</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>30.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>156</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>87,3830</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>31.08.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>156</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>87,2611</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>01.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>156</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>87,2835</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>02.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>156</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>87,4365</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>03.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>156</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>87,8418</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>06.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>156</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>87,4706</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>07.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>156</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>87,5650</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>08.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>156</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>87,3741</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>09.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>156</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>87,3512</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>10.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>156</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>87,2525</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>13.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>156</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>86,6164</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>14.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>156</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>85,6771</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>15.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>156</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>85,4232</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>16.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>156</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>85,4611</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>17.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>156</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>85,5472</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>20.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>156</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>85,4169</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>21.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>156</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>86,0242</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>22.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>156</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>84,3825</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>23.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>156</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>81,5329</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>24.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>156</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>80,9047</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>27.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>156</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>81,0556</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>28.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>156</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>80,7200</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>29.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>156</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>79,8495</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>30.09.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>156</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>81,5532</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>01.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>156</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>81,3315</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>04.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>156</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>81,8230</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>05.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>156</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>83,6370</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>06.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>156</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>85,9078</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>07.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>156</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>85,9359</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>08.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>156</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>86,1548</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>11.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>156</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>87,5241</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>12.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>156</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>86,6980</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>13.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>156</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>87,0486</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>14.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>156</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>86,9152</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>15.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>156</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>85,2304</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>18.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>156</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>85,0975</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>19.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>156</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>84,5711</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>20.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>156</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>84,5185</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>21.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>156</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>83,7320</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>22.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>156</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>83,2169</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>25.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>156</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>83,2416</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>26.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>156</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>84,7845</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>27.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>156</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>84,3967</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>28.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>156</v>
+      </c>
+      <c r="D77" t="n">
+        <v>10</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>84,3159</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>29.10.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>156</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>83,9469</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>01.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>156</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>84,0548</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>02.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>156</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>84,2847</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>03.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>156</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>84,3037</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>04.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>156</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>84,3154</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>08.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>156</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>83,6997</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>09.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>156</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>83,9724</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>10.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>156</v>
+      </c>
+      <c r="D85" t="n">
+        <v>10</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>84,0456</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>11.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>156</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>84,4637</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>12.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>156</v>
+      </c>
+      <c r="D87" t="n">
+        <v>10</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>85,4248</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>15.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>156</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>85,3691</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>16.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>156</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>85,0026</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>17.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>156</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>84,4679</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>18.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>156</v>
+      </c>
+      <c r="D91" t="n">
+        <v>10</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>84,7201</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>19.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>156</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>84,7557</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>22.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>156</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>84,7222</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>23.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>156</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>84,3616</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>24.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>156</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>84,3800</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>25.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>156</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>84,2448</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>26.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>156</v>
+      </c>
+      <c r="D97" t="n">
+        <v>10</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>84,1256</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>29.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>156</v>
+      </c>
+      <c r="D98" t="n">
+        <v>10</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>84,8798</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>30.11.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>156</v>
+      </c>
+      <c r="D99" t="n">
+        <v>10</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>85,3746</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>01.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>156</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>86,3709</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>02.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>156</v>
+      </c>
+      <c r="D101" t="n">
+        <v>10</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>87,8395</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>03.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>156</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>89,3117</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>06.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>156</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>89,6835</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>07.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>156</v>
+      </c>
+      <c r="D104" t="n">
+        <v>10</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>89,9043</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>08.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>156</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>89,7431</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>09.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>156</v>
+      </c>
+      <c r="D106" t="n">
+        <v>10</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>89,6236</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>10.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>156</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>89,8436</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>13.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>156</v>
+      </c>
+      <c r="D108" t="n">
+        <v>10</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>90,3731</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>14.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>156</v>
+      </c>
+      <c r="D109" t="n">
+        <v>10</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>91,0864</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>15.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Китайских юаней</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
         <is>
           <t>91,0864</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>15.12.2022</t>
         </is>

--- a/CNY.xlsx
+++ b/CNY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4045,29 +4045,95 @@
           <t>R01375</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" t="n">
+        <v>156</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>92,0786</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>16.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>156</v>
+      </c>
+      <c r="D111" t="n">
+        <v>10</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>92,4382</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>17.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Китайских юаней</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>91,0864</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>15.12.2022</t>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>92,4382</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>17.12.2022</t>
         </is>
       </c>
     </row>

--- a/CNY.xlsx
+++ b/CNY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4111,29 +4111,62 @@
           <t>R01375</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" t="n">
+        <v>156</v>
+      </c>
+      <c r="D112" t="n">
+        <v>10</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>94,9964</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>20.12.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>R01375</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Китайских юаней</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>92,4382</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>17.12.2022</t>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Китайских юаней</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>94,9964</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>20.12.2022</t>
         </is>
       </c>
     </row>
